--- a/excel/testdata/Sample1.xlsx
+++ b/excel/testdata/Sample1.xlsx
@@ -8,13 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/563bdb7488ad38a1/work/tomato-proj/tools/excel/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{7122237B-DB4D-4935-9631-6B0FACAB3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EFE91BC-EDC0-4D04-BD7B-118D466A8FE8}"/>
+  <xr:revisionPtr revIDLastSave="1224" documentId="8_{7122237B-DB4D-4935-9631-6B0FACAB3035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F31B8F27-DD27-460B-9931-2B8F1908FF3C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20AA3B32-4AA2-4DEC-9FB0-A111BDA0A81D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="表紙" sheetId="3" r:id="rId1"/>
+    <sheet name="目次" sheetId="4" r:id="rId2"/>
+    <sheet name="WSL2 設定手順" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'WSL2 設定手順'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">目次!$1:$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,8 +42,126 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>中尾優</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{C6DCF5B7-D39E-48CB-829B-4472BAADA3E8}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TOMATO: Begin{Table of Contents}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="0" shapeId="0" xr:uid="{33A34CF3-51D3-42A7-8C97-60648747526B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TOMATO: End{Table of Contents}</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>中尾優</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F1724D55-E87F-46DE-A24F-11CB4140DAAA}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TOMATO: Header1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0" shapeId="0" xr:uid="{590059A1-31B7-4A28-82C5-501A2BD0D81A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TOMATO: Header2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A12" authorId="0" shapeId="0" xr:uid="{BE52A1DB-C18A-472B-A4E2-15D3F0ACCB01}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TOMATO: Header2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0" xr:uid="{51800FF4-7278-4861-AE52-6E929E74FA74}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TOMATO: Header2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A46" authorId="0" shapeId="0" xr:uid="{2F1BEF7F-EECD-44EC-BAAF-E02915484AF1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>TOMATO: Header2</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="43">
   <si>
     <t>新規作成シート</t>
     <rPh sb="0" eb="4">
@@ -44,12 +169,199 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Windows 11 で Ubuntu (Linux) を使用する環境をセットアップする手順です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒント:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PowerShell を管理者モードで起動する</t>
+    <rPh sb="12" eb="15">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>wsl --install</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「スタート &gt; Ubuntu」から起動する</t>
+    <rPh sb="17" eb="19">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>New password: &lt;password&gt;</t>
+  </si>
+  <si>
+    <t>Retype new password: &lt;password&gt;</t>
+  </si>
+  <si>
+    <t>Create a default Unix user account: USERNAME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイル名を指定して実行から [wt] で起動する</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターミナル (wt) &gt; 設定</t>
+    <rPh sb="13" eb="15">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zsh、Go の開発環境をセットアップします。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テキストをコピーする</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ctrl+c → 削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>enter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ctrl+shift+c → 削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ctrl+insert → 削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>貼り付け</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ctrl+v → 削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ctrl+shift+v → 削除</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shift+insert</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sudo apt update &amp;&amp; sudo apt upgrade -y</t>
+  </si>
+  <si>
+    <t>Windows 11</t>
+  </si>
+  <si>
+    <t>更新日付</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新箇所</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>更新者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目次</t>
+  </si>
+  <si>
+    <t>1. WSL2 設定手順</t>
+  </si>
+  <si>
+    <t>1. WSL2 設定手順</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.1. 概要</t>
+  </si>
+  <si>
+    <t>1.1. 概要</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.2. 初期設定</t>
+  </si>
+  <si>
+    <t>1.2. 初期設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.3. ターミナルの設定</t>
+  </si>
+  <si>
+    <t>1.3. ターミナルの設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.4. ログイン後の設定</t>
+  </si>
+  <si>
+    <t>1.4. ログイン後の設定</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2025/4/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Windows 11 の初期セットアップ</t>
+    <rPh sb="12" eb="14">
+      <t>ショキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規作成</t>
+    <rPh sb="0" eb="4">
+      <t>シンキサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +377,101 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="35"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="23"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -82,18 +479,591 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -107,6 +1077,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -425,14 +1399,2267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6095624-825D-4862-B692-70EE621DDC6A}">
+  <dimension ref="A6:AG40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A6" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="52"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+    </row>
+    <row r="7" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="52"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="52"/>
+      <c r="AF7" s="52"/>
+      <c r="AG7" s="52"/>
+    </row>
+    <row r="8" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A8" s="52"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="52"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="52"/>
+      <c r="AF8" s="52"/>
+      <c r="AG8" s="52"/>
+    </row>
+    <row r="9" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A9" s="52"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="52"/>
+      <c r="AF9" s="52"/>
+      <c r="AG9" s="52"/>
+    </row>
+    <row r="10" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A10" s="52"/>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="52"/>
+      <c r="AF10" s="52"/>
+      <c r="AG10" s="52"/>
+    </row>
+    <row r="11" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A11" s="52"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+      <c r="X11" s="52"/>
+      <c r="Y11" s="52"/>
+      <c r="Z11" s="52"/>
+      <c r="AA11" s="52"/>
+      <c r="AB11" s="52"/>
+      <c r="AC11" s="52"/>
+      <c r="AD11" s="52"/>
+      <c r="AE11" s="52"/>
+      <c r="AF11" s="52"/>
+      <c r="AG11" s="52"/>
+    </row>
+    <row r="19" spans="1:33" ht="13.5" customHeight="1" thickBot="1"/>
+    <row r="20" spans="1:33" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A20" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="34"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="34"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="34"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE20" s="34"/>
+      <c r="AF20" s="34"/>
+      <c r="AG20" s="39"/>
+    </row>
+    <row r="21" spans="1:33" ht="13.5" customHeight="1" thickTop="1">
+      <c r="A21" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="23"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="23"/>
+      <c r="R21" s="23"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="24"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="23"/>
+      <c r="AF21" s="23"/>
+      <c r="AG21" s="40"/>
+    </row>
+    <row r="22" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A22" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="27"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="27"/>
+      <c r="R22" s="27"/>
+      <c r="S22" s="28"/>
+      <c r="T22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U22" s="27"/>
+      <c r="V22" s="27"/>
+      <c r="W22" s="27"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="27"/>
+      <c r="AB22" s="27"/>
+      <c r="AC22" s="28"/>
+      <c r="AD22" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="27"/>
+      <c r="AG22" s="41"/>
+    </row>
+    <row r="23" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A23" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="27"/>
+      <c r="P23" s="27"/>
+      <c r="Q23" s="27"/>
+      <c r="R23" s="27"/>
+      <c r="S23" s="28"/>
+      <c r="T23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U23" s="27"/>
+      <c r="V23" s="27"/>
+      <c r="W23" s="27"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="27"/>
+      <c r="AB23" s="27"/>
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="27"/>
+      <c r="AG23" s="41"/>
+    </row>
+    <row r="24" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A24" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="27"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="27"/>
+      <c r="R24" s="27"/>
+      <c r="S24" s="28"/>
+      <c r="T24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U24" s="27"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="27"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="27"/>
+      <c r="AB24" s="27"/>
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="27"/>
+      <c r="AG24" s="41"/>
+    </row>
+    <row r="25" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A25" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="27"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="27"/>
+      <c r="R25" s="27"/>
+      <c r="S25" s="28"/>
+      <c r="T25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" s="27"/>
+      <c r="V25" s="27"/>
+      <c r="W25" s="27"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="27"/>
+      <c r="AB25" s="27"/>
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="27"/>
+      <c r="AG25" s="41"/>
+    </row>
+    <row r="26" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A26" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="27"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="27"/>
+      <c r="R26" s="27"/>
+      <c r="S26" s="28"/>
+      <c r="T26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U26" s="27"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="27"/>
+      <c r="X26" s="27"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="27"/>
+      <c r="AA26" s="27"/>
+      <c r="AB26" s="27"/>
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="27"/>
+      <c r="AG26" s="41"/>
+    </row>
+    <row r="27" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A27" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AB27" s="27"/>
+      <c r="AC27" s="28"/>
+      <c r="AD27" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="27"/>
+      <c r="AF27" s="27"/>
+      <c r="AG27" s="41"/>
+    </row>
+    <row r="28" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A28" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="27"/>
+      <c r="R28" s="27"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="27"/>
+      <c r="Y28" s="27"/>
+      <c r="Z28" s="27"/>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="27"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="27"/>
+      <c r="AF28" s="27"/>
+      <c r="AG28" s="41"/>
+    </row>
+    <row r="29" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A29" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="27"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="27"/>
+      <c r="R29" s="27"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
+      <c r="AA29" s="27"/>
+      <c r="AB29" s="27"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="27"/>
+      <c r="AF29" s="27"/>
+      <c r="AG29" s="41"/>
+    </row>
+    <row r="30" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A30" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="28"/>
+      <c r="T30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U30" s="27"/>
+      <c r="V30" s="27"/>
+      <c r="W30" s="27"/>
+      <c r="X30" s="27"/>
+      <c r="Y30" s="27"/>
+      <c r="Z30" s="27"/>
+      <c r="AA30" s="27"/>
+      <c r="AB30" s="27"/>
+      <c r="AC30" s="28"/>
+      <c r="AD30" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="27"/>
+      <c r="AF30" s="27"/>
+      <c r="AG30" s="41"/>
+    </row>
+    <row r="31" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A31" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="28"/>
+      <c r="T31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" s="27"/>
+      <c r="V31" s="27"/>
+      <c r="W31" s="27"/>
+      <c r="X31" s="27"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="28"/>
+      <c r="AD31" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
+      <c r="AG31" s="41"/>
+    </row>
+    <row r="32" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A32" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="27"/>
+      <c r="M32" s="27"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="28"/>
+      <c r="T32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U32" s="27"/>
+      <c r="V32" s="27"/>
+      <c r="W32" s="27"/>
+      <c r="X32" s="27"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="28"/>
+      <c r="AD32" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
+      <c r="AG32" s="41"/>
+    </row>
+    <row r="33" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A33" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="27"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="28"/>
+      <c r="T33" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="27"/>
+      <c r="V33" s="27"/>
+      <c r="W33" s="27"/>
+      <c r="X33" s="27"/>
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27"/>
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="28"/>
+      <c r="AD33" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
+      <c r="AG33" s="41"/>
+    </row>
+    <row r="34" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A34" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="27"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="27"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="27"/>
+      <c r="S34" s="28"/>
+      <c r="T34" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U34" s="27"/>
+      <c r="V34" s="27"/>
+      <c r="W34" s="27"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="27"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="27"/>
+      <c r="AB34" s="27"/>
+      <c r="AC34" s="28"/>
+      <c r="AD34" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="27"/>
+      <c r="AF34" s="27"/>
+      <c r="AG34" s="41"/>
+    </row>
+    <row r="35" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A35" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="27"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="27"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="27"/>
+      <c r="R35" s="27"/>
+      <c r="S35" s="28"/>
+      <c r="T35" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U35" s="27"/>
+      <c r="V35" s="27"/>
+      <c r="W35" s="27"/>
+      <c r="X35" s="27"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="27"/>
+      <c r="AC35" s="28"/>
+      <c r="AD35" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="27"/>
+      <c r="AF35" s="27"/>
+      <c r="AG35" s="41"/>
+    </row>
+    <row r="36" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A36" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="27"/>
+      <c r="M36" s="27"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="27"/>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="28"/>
+      <c r="T36" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U36" s="27"/>
+      <c r="V36" s="27"/>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+      <c r="AA36" s="27"/>
+      <c r="AB36" s="27"/>
+      <c r="AC36" s="28"/>
+      <c r="AD36" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="27"/>
+      <c r="AF36" s="27"/>
+      <c r="AG36" s="41"/>
+    </row>
+    <row r="37" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A37" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="27"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="27"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="27"/>
+      <c r="R37" s="27"/>
+      <c r="S37" s="28"/>
+      <c r="T37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" s="27"/>
+      <c r="V37" s="27"/>
+      <c r="W37" s="27"/>
+      <c r="X37" s="27"/>
+      <c r="Y37" s="27"/>
+      <c r="Z37" s="27"/>
+      <c r="AA37" s="27"/>
+      <c r="AB37" s="27"/>
+      <c r="AC37" s="28"/>
+      <c r="AD37" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="27"/>
+      <c r="AF37" s="27"/>
+      <c r="AG37" s="41"/>
+    </row>
+    <row r="38" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A38" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="S38" s="28"/>
+      <c r="T38" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="27"/>
+      <c r="AC38" s="28"/>
+      <c r="AD38" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="27"/>
+      <c r="AF38" s="27"/>
+      <c r="AG38" s="41"/>
+    </row>
+    <row r="39" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A39" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="27"/>
+      <c r="S39" s="28"/>
+      <c r="T39" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="U39" s="27"/>
+      <c r="V39" s="27"/>
+      <c r="W39" s="27"/>
+      <c r="X39" s="27"/>
+      <c r="Y39" s="27"/>
+      <c r="Z39" s="27"/>
+      <c r="AA39" s="27"/>
+      <c r="AB39" s="27"/>
+      <c r="AC39" s="28"/>
+      <c r="AD39" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="27"/>
+      <c r="AF39" s="27"/>
+      <c r="AG39" s="41"/>
+    </row>
+    <row r="40" spans="1:33" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A40" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="37"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="37"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="37"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="37"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="38"/>
+      <c r="T40" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" s="37"/>
+      <c r="V40" s="37"/>
+      <c r="W40" s="37"/>
+      <c r="X40" s="37"/>
+      <c r="Y40" s="37"/>
+      <c r="Z40" s="37"/>
+      <c r="AA40" s="37"/>
+      <c r="AB40" s="37"/>
+      <c r="AC40" s="38"/>
+      <c r="AD40" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="37"/>
+      <c r="AF40" s="37"/>
+      <c r="AG40" s="42"/>
+    </row>
+  </sheetData>
+  <mergeCells count="85">
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="E40:S40"/>
+    <mergeCell ref="T40:AC40"/>
+    <mergeCell ref="AD40:AG40"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="E38:S38"/>
+    <mergeCell ref="T38:AC38"/>
+    <mergeCell ref="AD38:AG38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:S39"/>
+    <mergeCell ref="T39:AC39"/>
+    <mergeCell ref="AD39:AG39"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="E36:S36"/>
+    <mergeCell ref="T36:AC36"/>
+    <mergeCell ref="AD36:AG36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="E37:S37"/>
+    <mergeCell ref="T37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E34:S34"/>
+    <mergeCell ref="T34:AC34"/>
+    <mergeCell ref="AD34:AG34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="E35:S35"/>
+    <mergeCell ref="T35:AC35"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E32:S32"/>
+    <mergeCell ref="T32:AC32"/>
+    <mergeCell ref="AD32:AG32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="E33:S33"/>
+    <mergeCell ref="T33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="E30:S30"/>
+    <mergeCell ref="T30:AC30"/>
+    <mergeCell ref="AD30:AG30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="E31:S31"/>
+    <mergeCell ref="T31:AC31"/>
+    <mergeCell ref="AD31:AG31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:S28"/>
+    <mergeCell ref="T28:AC28"/>
+    <mergeCell ref="AD28:AG28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:S29"/>
+    <mergeCell ref="T29:AC29"/>
+    <mergeCell ref="AD29:AG29"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="E26:S26"/>
+    <mergeCell ref="T26:AC26"/>
+    <mergeCell ref="AD26:AG26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:S27"/>
+    <mergeCell ref="T27:AC27"/>
+    <mergeCell ref="AD27:AG27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="E24:S24"/>
+    <mergeCell ref="T24:AC24"/>
+    <mergeCell ref="AD24:AG24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="E25:S25"/>
+    <mergeCell ref="T25:AC25"/>
+    <mergeCell ref="AD25:AG25"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E22:S22"/>
+    <mergeCell ref="T22:AC22"/>
+    <mergeCell ref="AD22:AG22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="E23:S23"/>
+    <mergeCell ref="T23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="A6:AG11"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="E20:S20"/>
+    <mergeCell ref="T20:AC20"/>
+    <mergeCell ref="AD20:AG20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="E21:S21"/>
+    <mergeCell ref="T21:AC21"/>
+    <mergeCell ref="AD21:AG21"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.62992126922907798" right="0.2362204818275031" top="0.62992126922907798" bottom="0.62992126922907798" header="0.2362204818275031" footer="0.2362204818275031"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A385C795-C68A-41F5-A938-3E2FA04BE156}">
+  <dimension ref="A1:AG9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="3" customHeight="1" thickBot="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" spans="1:33" ht="15.75" customHeight="1" thickTop="1"/>
+    <row r="5" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B5" s="54" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B6" s="54"/>
+      <c r="C6" s="54" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B7" s="54"/>
+      <c r="C7" s="54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B9" s="54"/>
+      <c r="C9" s="54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B5" location="'WSL2 設定手順'!$A$1" display="1. WSL2 設定手順" xr:uid="{ECFBC2D8-4942-471E-99BC-DC9BD1BBA00B}"/>
+    <hyperlink ref="C6" location="'WSL2 設定手順'!$A$5" display="1.1. 概要" xr:uid="{C3CE5361-2DEE-485C-AA49-8DF3225D5CE4}"/>
+    <hyperlink ref="C7" location="'WSL2 設定手順'!$A$12" display="1.2. 初期設定" xr:uid="{ABE2E1BF-AAD4-4CBA-A29D-A810AAA50AF7}"/>
+    <hyperlink ref="C8" location="'WSL2 設定手順'!$A$30" display="1.3. ターミナルの設定" xr:uid="{7988626C-965C-4274-A33F-63BF8D0C61F6}"/>
+    <hyperlink ref="C9" location="'WSL2 設定手順'!$A$46" display="1.4. ログイン後の設定" xr:uid="{A32E549A-F7E0-4904-BA66-CBAE59A45A80}"/>
+  </hyperlinks>
+  <pageMargins left="0.62992126922907798" right="0.2362204818275031" top="0.62992126922907798" bottom="0.62992126922907798" header="0.2362204818275031" footer="0.2362204818275031"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FD0AC97-2D5E-449B-898B-E1ACDAEE2A6A}">
+  <dimension ref="A1:AG50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.69921875" defaultRowHeight="13.5" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="2.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:33" ht="15.75" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" ht="3" customHeight="1" thickBot="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+    </row>
+    <row r="3" spans="1:33" ht="15.75" customHeight="1" thickTop="1"/>
+    <row r="5" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A5" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="8"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="11"/>
+    </row>
+    <row r="8" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B8" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+      <c r="AC8" s="6"/>
+      <c r="AD8" s="6"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
+      <c r="AG8" s="13"/>
+    </row>
+    <row r="9" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="12"/>
+    </row>
+    <row r="12" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+      <c r="Z16" s="17"/>
+      <c r="AA16" s="17"/>
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="17"/>
+      <c r="AD16" s="17"/>
+      <c r="AE16" s="17"/>
+      <c r="AF16" s="17"/>
+      <c r="AG16" s="20"/>
+    </row>
+    <row r="17" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="21"/>
+    </row>
+    <row r="18" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="22"/>
+    </row>
+    <row r="21" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="Z23" s="17"/>
+      <c r="AA23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AC23" s="17"/>
+      <c r="AD23" s="17"/>
+      <c r="AE23" s="17"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="20"/>
+    </row>
+    <row r="24" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B24" s="14"/>
+      <c r="C24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" s="15"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="15"/>
+      <c r="X24" s="15"/>
+      <c r="Y24" s="15"/>
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="15"/>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="15"/>
+      <c r="AD24" s="15"/>
+      <c r="AE24" s="15"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="21"/>
+    </row>
+    <row r="25" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="15"/>
+      <c r="Y25" s="15"/>
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="15"/>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="15"/>
+      <c r="AD25" s="15"/>
+      <c r="AE25" s="15"/>
+      <c r="AF25" s="15"/>
+      <c r="AG25" s="21"/>
+    </row>
+    <row r="26" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B26" s="14"/>
+      <c r="C26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="15"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="W26" s="15"/>
+      <c r="X26" s="15"/>
+      <c r="Y26" s="15"/>
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="15"/>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="15"/>
+      <c r="AD26" s="15"/>
+      <c r="AE26" s="15"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="21"/>
+    </row>
+    <row r="27" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="22"/>
+    </row>
+    <row r="30" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:33" ht="13.5" customHeight="1" thickBot="1"/>
+    <row r="36" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B36" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" s="46"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="46"/>
+      <c r="J36" s="46"/>
+      <c r="K36" s="46"/>
+      <c r="L36" s="46"/>
+      <c r="M36" s="46"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="46"/>
+      <c r="P36" s="46"/>
+      <c r="Q36" s="46"/>
+      <c r="R36" s="46"/>
+      <c r="S36" s="46"/>
+      <c r="T36" s="46"/>
+      <c r="U36" s="46"/>
+      <c r="V36" s="46"/>
+      <c r="W36" s="46"/>
+      <c r="X36" s="46"/>
+      <c r="Y36" s="46"/>
+      <c r="Z36" s="46"/>
+      <c r="AA36" s="46"/>
+      <c r="AB36" s="46"/>
+      <c r="AC36" s="46"/>
+      <c r="AD36" s="46"/>
+      <c r="AE36" s="46"/>
+      <c r="AF36" s="46"/>
+      <c r="AG36" s="49"/>
+    </row>
+    <row r="37" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B37" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="25"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="R37" s="25"/>
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="25"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+      <c r="AF37" s="25"/>
+      <c r="AG37" s="50"/>
+    </row>
+    <row r="38" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B38" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="R38" s="25"/>
+      <c r="S38" s="25"/>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+      <c r="AF38" s="25"/>
+      <c r="AG38" s="50"/>
+    </row>
+    <row r="39" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B39" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="25"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="R39" s="25"/>
+      <c r="S39" s="25"/>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+      <c r="AF39" s="25"/>
+      <c r="AG39" s="50"/>
+    </row>
+    <row r="40" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B40" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="25"/>
+      <c r="K40" s="25"/>
+      <c r="L40" s="25"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="25"/>
+      <c r="O40" s="25"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40" s="25"/>
+      <c r="S40" s="25"/>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+      <c r="AF40" s="25"/>
+      <c r="AG40" s="50"/>
+    </row>
+    <row r="41" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B41" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+      <c r="AF41" s="25"/>
+      <c r="AG41" s="50"/>
+    </row>
+    <row r="42" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B42" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="25"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="R42" s="25"/>
+      <c r="S42" s="25"/>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+      <c r="AF42" s="25"/>
+      <c r="AG42" s="50"/>
+    </row>
+    <row r="43" spans="1:33" ht="13.5" customHeight="1" thickBot="1">
+      <c r="B43" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="37"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="37"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="37"/>
+      <c r="P43" s="38"/>
+      <c r="Q43" s="48" t="s">
+        <v>22</v>
+      </c>
+      <c r="R43" s="37"/>
+      <c r="S43" s="37"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="37"/>
+      <c r="V43" s="37"/>
+      <c r="W43" s="37"/>
+      <c r="X43" s="37"/>
+      <c r="Y43" s="37"/>
+      <c r="Z43" s="37"/>
+      <c r="AA43" s="37"/>
+      <c r="AB43" s="37"/>
+      <c r="AC43" s="37"/>
+      <c r="AD43" s="37"/>
+      <c r="AE43" s="37"/>
+      <c r="AF43" s="37"/>
+      <c r="AG43" s="42"/>
+    </row>
+    <row r="46" spans="1:33" ht="13.5" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:33" ht="13.5" customHeight="1">
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+      <c r="Z48" s="17"/>
+      <c r="AA48" s="17"/>
+      <c r="AB48" s="17"/>
+      <c r="AC48" s="17"/>
+      <c r="AD48" s="17"/>
+      <c r="AE48" s="17"/>
+      <c r="AF48" s="17"/>
+      <c r="AG48" s="20"/>
+    </row>
+    <row r="49" spans="2:33" ht="13.5" customHeight="1">
+      <c r="B49" s="14"/>
+      <c r="C49" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
+      <c r="AC49" s="15"/>
+      <c r="AD49" s="15"/>
+      <c r="AE49" s="15"/>
+      <c r="AF49" s="15"/>
+      <c r="AG49" s="21"/>
+    </row>
+    <row r="50" spans="2:33" ht="13.5" customHeight="1">
+      <c r="B50" s="18"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="19"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="19"/>
+      <c r="R50" s="19"/>
+      <c r="S50" s="19"/>
+      <c r="T50" s="19"/>
+      <c r="U50" s="19"/>
+      <c r="V50" s="19"/>
+      <c r="W50" s="19"/>
+      <c r="X50" s="19"/>
+      <c r="Y50" s="19"/>
+      <c r="Z50" s="19"/>
+      <c r="AA50" s="19"/>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
+      <c r="AE50" s="19"/>
+      <c r="AF50" s="19"/>
+      <c r="AG50" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="C42:P42"/>
+    <mergeCell ref="Q42:AG42"/>
+    <mergeCell ref="C43:P43"/>
+    <mergeCell ref="Q43:AG43"/>
+    <mergeCell ref="C39:P39"/>
+    <mergeCell ref="Q39:AG39"/>
+    <mergeCell ref="C40:P40"/>
+    <mergeCell ref="Q40:AG40"/>
+    <mergeCell ref="C41:P41"/>
+    <mergeCell ref="Q41:AG41"/>
+    <mergeCell ref="B36:AG36"/>
+    <mergeCell ref="C37:P37"/>
+    <mergeCell ref="Q37:AG37"/>
+    <mergeCell ref="C38:P38"/>
+    <mergeCell ref="Q38:AG38"/>
+    <mergeCell ref="B7:AG7"/>
+    <mergeCell ref="B8:AG8"/>
+    <mergeCell ref="B9:AG9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.62992126922907798" right="0.2362204818275031" top="0.62992126922907798" bottom="0.62992126922907798" header="0.2362204818275031" footer="0.2362204818275031"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P / &amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672DCC19-C76B-42F4-9766-71FF88469630}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -440,5 +3667,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>